--- a/tradept/Excel/Localization/Main/english/W文字探索特殊事件表_TextExploreEvents_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/W文字探索特殊事件表_TextExploreEvents_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9940B5-576C-4E9C-B23A-2FE3DABA7DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BDA54C-0F80-4DBA-963A-D00BBC6FA389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -54,33 +54,18 @@
     <t>Continuar</t>
   </si>
   <si>
-    <t>· No hay nada aquí.</t>
-  </si>
-  <si>
     <t>恢复生命</t>
   </si>
   <si>
     <t>·此处可以&lt;color=blue&gt;恢复全体一成生命&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>Recuperar la salud</t>
-  </si>
-  <si>
-    <t>· Sientes que la vitalidad sube por el aire. Enfoque, y su &lt;color=blue&gt; todo el partido puede recuperar un 10% de salud &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>恢复气力</t>
   </si>
   <si>
     <t>·此处可以&lt;color=blue&gt;恢复全体两成气力&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>Recuperar maná</t>
-  </si>
-  <si>
-    <t>· Sientes que Arcana surge por el aire. Enfoque, y su &lt;color=blue&gt; todo el partido puede recuperar 20% de maná &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>恢复斗志</t>
   </si>
   <si>
@@ -93,12 +78,6 @@
     <t>·此处有狂野化的魔石：团队&lt;color=blue&gt;攻击强度上升30%&lt;/color&gt;，但&lt;color=red&gt;受到的伤害增加20%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>Activar huelgas salvajes</t>
-  </si>
-  <si>
-    <t>· Encuentra una piedra arcana con una inscripción: huelgas salvajes. Activarlo &lt;color=blue&gt; aumentará el ataque de todo el partido en un 30%&lt;/color&gt; pero &lt;color=red&gt; aumentará su daño tomado en un 20%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>狂战士攻击</t>
   </si>
   <si>
@@ -108,12 +87,6 @@
     <t>·此处有狂战士的魔石：团队&lt;color=blue&gt;暴击率上升25%&lt;/color&gt;，但&lt;color=red&gt;被暴击率也上升了15%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>Activar asalto berserk</t>
-  </si>
-  <si>
-    <t>· Encuentra una piedra arcana con una inscripción: asalto berserk. Activarlo &lt;color=blue&gt; aumentará la tasa de crítica de toda su grupo en un 25 %&lt;/color&gt; pero &lt;color=red&gt; aumentará su vulnerabilidad crítica por %&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>铁甲之阵</t>
   </si>
   <si>
@@ -123,12 +96,6 @@
     <t>·此处有铁甲之阵的魔石：团队&lt;color=blue&gt;的物理减伤+20%&lt;/color&gt;，但&lt;color=red&gt;移动速度下降150点&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>Activar barricada</t>
-  </si>
-  <si>
-    <t>· Encuentra una piedra arcana con una inscripción: barricada. Activarlo &lt;color=blue&gt; aumentará la defensa de toda su grupo por 20 &lt;/color&gt; pero &lt;color=red&gt; reducir su velocidad de movimiento en 150 &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>滴水不漏</t>
   </si>
   <si>
@@ -138,12 +105,6 @@
     <t>·此处有滴水不漏的魔石：团队&lt;color=blue&gt;格挡率上升20%&lt;/color&gt;，但&lt;color=red&gt;技能冷却时间延长50%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>Activar impenetrable</t>
-  </si>
-  <si>
-    <t>· Encuentra una piedra arcana con una inscripción, impenetrable. Activarlo &lt;color=blue&gt; aumentará el bloque de todo su grupo en un 20%&lt;/color&gt; pero &lt;color=red&gt; aumentar sus reyes de habilidad en un 50%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>奇妙药剂</t>
   </si>
   <si>
@@ -153,12 +114,6 @@
     <t>·此处有奇妙药剂的魔石：团队&lt;color=blue&gt;每秒恢复生命增加20点&lt;/color&gt;，但&lt;color=red&gt;攻击力下降30%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>Activar panacea</t>
-  </si>
-  <si>
-    <t>· Encuentra una piedra arcana con una inscripción: panacea. Activarlo &lt;color=blue&gt; restaurará 20 salud a toda su grupo cada segundo &lt;/color&gt; pero &lt;color=red&gt; reducir su ataque en un 30%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>风之阵</t>
   </si>
   <si>
@@ -168,12 +123,6 @@
     <t>·此处有风之阵的魔石：团队&lt;color=blue&gt;闪避率上升20%&lt;/color&gt;，但&lt;color=red&gt;受到的伤害增加15%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>Activar Wind Ward</t>
-  </si>
-  <si>
-    <t>· Encuentra una piedra arcana con una inscripción - Wind Ward. Activarlo &lt;color=blue&gt; aumentará la evadir de toda su grupo en un 20%&lt;/color&gt; pero &lt;color=red&gt; aumentar su daño en un 15%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>队友加入猎人</t>
   </si>
   <si>
@@ -183,12 +132,6 @@
     <t>·一位猎人站在这里，他好像迫切地想加入你的探索队伍。</t>
   </si>
   <si>
-    <t>Pídales que se unan a su grupo</t>
-  </si>
-  <si>
-    <t>· Hay un cazador aquí. Parece ansioso por unirse a tu grupo.</t>
-  </si>
-  <si>
     <t>开宝箱乌塔小</t>
   </si>
   <si>
@@ -198,12 +141,6 @@
     <t>·此处有一个宝箱。</t>
   </si>
   <si>
-    <t>Pecho abierto</t>
-  </si>
-  <si>
-    <t>· Encuentra un cofre del tesoro.</t>
-  </si>
-  <si>
     <t>开宝箱木材小</t>
   </si>
   <si>
@@ -225,9 +162,6 @@
     <t>·此处毒气强烈，你们吸入了毒气。战斗中&lt;color=red&gt;每秒损失5点生命&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Un gas venenoso llena el área, lo que hace que su partido &lt;color=red&gt; pierda 5 de salud por segundo &lt;/color&gt; en la batalla.</t>
-  </si>
-  <si>
     <t>毒气强化攻击</t>
   </si>
   <si>
@@ -237,93 +171,60 @@
     <t>·此处有强化攻击的魔石：&lt;color=blue&gt;团队攻击力+30%&lt;/color&gt;。但激活此魔石会吸入毒气，战斗中&lt;color=red&gt;每秒损失5点生命&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>Activar la piedra arcana</t>
-  </si>
-  <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el ataque de todo el partido en el 30%&lt;/color&gt;, pero liberará un gas venenoso que hace que su partido &lt;color=red&gt; pierda 5 salud por segundo &lt;/color&gt; en la batalla.</t>
-  </si>
-  <si>
     <t>毒气强化暴击</t>
   </si>
   <si>
     <t>·此处有强化暴击的魔石：&lt;color=blue&gt;团队暴击率+25%&lt;/color&gt;。但激活此魔石会吸入毒气，战斗中&lt;color=red&gt;每秒损失5点生命&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la tasa de crítica de su grupo en un 25%&lt;/color&gt;, pero liberará un gas venenoso que hace que su partido se &lt;color=red&gt; pierda 5 salud por segundo &lt;/color&gt; en la batalla.</t>
-  </si>
-  <si>
     <t>毒气强化防御</t>
   </si>
   <si>
     <t>·此处有强化防御的魔石：&lt;color=blue&gt;团队的物理减伤+10%&lt;/color&gt;。但激活此魔石会吸入毒气，战斗中&lt;color=red&gt;每秒损失5点生命&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la defensa de toda su grupo por 10 &lt;/color&gt;, pero liberará un gas venenoso que hace que su partido &lt;color=red&gt; pierda 5 salud por segundo &lt;/color&gt; en la batalla.</t>
-  </si>
-  <si>
     <t>毒气强化格挡</t>
   </si>
   <si>
     <t>·此处有强化格挡的魔石：&lt;color=blue&gt;团队格挡率+20%&lt;/color&gt;。但激活此魔石会吸入毒气，战斗中&lt;color=red&gt;每秒损失5点生命&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el bloque de todo el partido en un 20%&lt;/color&gt;, pero liberará un gas venenoso que hace que su partido se &lt;color=red&gt; pierda 5 salud por segundo &lt;/color&gt; en la batalla.</t>
-  </si>
-  <si>
     <t>毒气强化闪避</t>
   </si>
   <si>
     <t>·此处有强化闪避的魔石：&lt;color=blue&gt;团队闪避率+20%&lt;/color&gt;。但激活此魔石会吸入毒气，战斗中&lt;color=red&gt;每秒损失5点生命&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la evadir todo su grupo en un 20%&lt;/color&gt;, pero liberará un gas venenoso que hace que su partido se &lt;color=red&gt; pierda 5 salud por segundo &lt;/color&gt; en la batalla.</t>
-  </si>
-  <si>
     <t>狂风纯负面</t>
   </si>
   <si>
     <t>·此处风力强劲，你们被狂风吹拂，距离终点更远了（&lt;color=red&gt;探索最大层数+1&lt;/color&gt;）。</t>
   </si>
   <si>
-    <t>· Una explosión de viento te ha volado fuera de tu camino. (&lt;color=red&gt; +1 pisos máximos &lt;/color&gt;)</t>
-  </si>
-  <si>
     <t>狂风强化攻击</t>
   </si>
   <si>
     <t>·此处有强化攻击的魔石：&lt;color=blue&gt;团队攻击力+30%&lt;/color&gt;。但激活此魔石会被狂风吹拂，距离终点更远了（&lt;color=red&gt;探索最大层数+1&lt;/color&gt;）。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el ataque de todo el partido en un 30%&lt;/color&gt;, pero desencadena una explosión de viento que te quita el camino. (&lt;color=red&gt; +1 pisos máximos &lt;/color&gt;)</t>
-  </si>
-  <si>
     <t>狂风强化暴击</t>
   </si>
   <si>
     <t>·此处有强化暴击的魔石：&lt;color=blue&gt;团队暴击率+25%&lt;/color&gt;。但激活此魔石会被狂风吹拂，距离终点更远了（&lt;color=red&gt;探索最大层数+1&lt;/color&gt;）。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la tasa de crítica de toda su grupo en un 25%&lt;/color&gt; pero desencadena una explosión de viento que te quita el camino. (&lt;color=red&gt; +1 pisos máximos &lt;/color&gt;)</t>
-  </si>
-  <si>
     <t>狂风强化防御</t>
   </si>
   <si>
     <t>·此处有强化防御的魔石：&lt;color=blue&gt;团队的物理减伤+10%&lt;/color&gt;。但激活此魔石会被狂风吹拂，距离终点更远了（&lt;color=red&gt;探索最大层数+1&lt;/color&gt;）。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la defensa de toda su grupo por 10 &lt;/color&gt;, pero activará una explosión de viento que te sale de tu camino. (&lt;color=red&gt; +1 pisos máximos &lt;/color&gt;)</t>
-  </si>
-  <si>
     <t>狂风强化格挡</t>
   </si>
   <si>
     <t>·此处有强化格挡的魔石：&lt;color=blue&gt;团队格挡率+20%&lt;/color&gt;。但激活此魔石会被狂风吹拂，距离终点更远了（&lt;color=red&gt;探索最大层数+1&lt;/color&gt;）。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el bloque de todo su grupo en un 20%&lt;/color&gt;, pero activará una explosión de viento que te quita de tu camino. (&lt;color=red&gt; +1 pisos máximos &lt;/color&gt;)</t>
-  </si>
-  <si>
     <t>狂风强化闪避</t>
   </si>
   <si>
@@ -342,63 +243,42 @@
     <t>·此处有雷鸣的魔石：&lt;color=blue&gt;团队攻击附加雷电效果&lt;/color&gt;。但在水中使用雷电魔力，也会在战斗中&lt;color=red&gt;间歇被电击麻痹&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Le da a su grupo &lt;color=blue&gt; ataques eléctricos &lt;/color&gt;. El uso de la magia del rayo en el agua también te hace ser &lt;color=red&gt; periódicamente paralizado &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>水龙魔石</t>
   </si>
   <si>
     <t>·此处有水龙的魔石：激活三枚水龙的魔石，可在最终战斗中挑战&lt;color=red&gt;水龙&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Active 3 piedras de dragón de mar para desafiar &lt;color=red&gt; Sea Dragon &lt;/color&gt; en la batalla final.</t>
-  </si>
-  <si>
     <t>毒蛇强化攻击</t>
   </si>
   <si>
     <t>·此处有强化攻击的魔石：&lt;color=blue&gt;团队攻击力+30%&lt;/color&gt;。但激活此魔石会被毒蛇咬伤，团队&lt;color=red&gt;生命-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el ataque de todo el partido en 30%&lt;/color&gt;, pero activará un ataque de Viper, reduciendo la salud &lt;color=red&gt; de su partido en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>毒蛇强化暴击</t>
   </si>
   <si>
     <t>·此处有强化暴击的魔石：&lt;color=blue&gt;团队暴击率+25%&lt;/color&gt;。但激活此魔石会被毒蛇咬伤，团队&lt;color=red&gt;生命-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la tasa de crítica de su grupo en un 25%&lt;/color&gt;, pero activará un ataque de Viper, reduciendo la salud &lt;color=red&gt; de su grupo en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>毒蛇强化防御</t>
   </si>
   <si>
     <t>·此处有强化防御的魔石：&lt;color=blue&gt;团队的物理减伤+10%&lt;/color&gt;。但激活此魔石会被毒蛇咬伤，团队&lt;color=red&gt;生命-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la defensa de toda su grupo por 10 &lt;/color&gt;, pero activará un ataque de Viper, reduciendo la salud &lt;color=red&gt; de su partido en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>毒蛇强化格挡</t>
   </si>
   <si>
     <t>·此处有强化格挡的魔石：&lt;color=blue&gt;团队格挡率+20%&lt;/color&gt;。但激活此魔石会被毒蛇咬伤，团队&lt;color=red&gt;生命-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el bloque de todo el partido en un 20%&lt;/color&gt;, pero activará un ataque de víbora, reduciendo la salud &lt;color=red&gt; de su grupo en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>毒蛇强化闪避</t>
   </si>
   <si>
     <t>·此处有强化闪避的魔石：&lt;color=blue&gt;团队闪避率+20%&lt;/color&gt;。但激活此魔石会被毒蛇咬伤，团队&lt;color=red&gt;生命-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la evadir de su grupo en un 20%&lt;/color&gt;, pero activará un ataque de víbora, reduciendo la salud &lt;color=red&gt; de su grupo en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>魔镜纯负面</t>
   </si>
   <si>
@@ -411,241 +291,361 @@
     <t>·镜子中的巫师正在观察你们的行踪！在最终战斗中，&lt;color=red&gt;巫师可以多复制一个自身的分身&lt;/color&gt;。但是分身总数不会超过五个。</t>
   </si>
   <si>
-    <t>· ¡El diablo en el espejo observa cada uno de tus movimientos! &lt;color=red&gt; El diablo convocará otro tono en la batalla final &lt;/color&gt;. El diablo puede convocar hasta 5 tonos.</t>
-  </si>
-  <si>
     <t>魔镜雷电</t>
   </si>
   <si>
     <t>·此处有雷鸣的魔石：&lt;color=blue&gt;团队攻击附加雷电效果&lt;/color&gt;。但魔鬼的力量也将随着魔石被进一步激活，在最终战斗中，&lt;color=red&gt;魔鬼可以多复制一名我方随机角色&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; Imbue los ataques de tu grupo con Lightning &lt;/color&gt; pero aumenta el poder del diablo, permitiendo &lt;color=red&gt; el diablo copiar a otro de tus personajes &lt;/color&gt; en la batalla final.</t>
-  </si>
-  <si>
     <t>魔镜封印石</t>
   </si>
   <si>
     <t>·此处有封印魔石：激活三枚封印魔石，我方将获得极为强力的加护。但魔鬼的力量也将随着魔石被进一步激活，在最终战斗中，&lt;color=red&gt;魔鬼可以多复制一名我方随机角色&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Active las 3 piedras arcanas para obtener un poderoso beneficio. Esto aumentará el poder del diablo, permitiendo que &lt;color=red&gt; el diablo copie a otro de tus personajes &lt;/color&gt; en la batalla final.</t>
-  </si>
-  <si>
     <t>魔镜强化攻击</t>
   </si>
   <si>
     <t>·此处有强化攻击的魔石：&lt;color=blue&gt;团队攻击力+30%&lt;/color&gt;。但激活此魔石，将&lt;color=red&gt;消耗团队30%的气力&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el ataque de su grupo en un 30% &lt;/color&gt; pero &lt;color=red&gt; gastar el 30% del maná de su grupo &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>魔镜强化暴击</t>
   </si>
   <si>
     <t>·此处有强化暴击的魔石：&lt;color=blue&gt;团队暴击率+25%&lt;/color&gt;。但激活此魔石，将&lt;color=red&gt;消耗团队30%的气力&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la tasa de crítica de su partido en un 25% &lt;/color&gt; pero &lt;color=red&gt; gastar el 30% del maná de su grupo &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>魔镜强化防御</t>
   </si>
   <si>
     <t>·此处有强化防御的魔石：&lt;color=blue&gt;团队的物理减伤+10%&lt;/color&gt;。但激活此魔石，将&lt;color=red&gt;消耗团队30%的气力&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la defensa de su partido por 10 &lt;/color&gt; pero &lt;color=red&gt; gastar el 30% del maná de su grupo &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>魔镜强化格挡</t>
   </si>
   <si>
     <t>·此处有强化格挡的魔石：&lt;color=blue&gt;团队格挡率+20%&lt;/color&gt;。但激活此魔石，将&lt;color=red&gt;消耗团队30%的气力&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el bloque de su grupo en un 20% &lt;/color&gt; pero &lt;color=red&gt; gastar el 30% del maná de su grupo &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>魔镜强化闪避</t>
   </si>
   <si>
     <t>·此处有强化闪避的魔石：&lt;color=blue&gt;团队闪避率+20%&lt;/color&gt;。但激活此魔石，将&lt;color=red&gt;消耗团队30%的气力&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la evadir de su partido en un 20% &lt;/color&gt; pero &lt;color=red&gt; gastar el 30% del maná de su grupo &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>美舍卢纯负面</t>
   </si>
   <si>
     <t>·受到美舍卢花的影响，团队每个人&lt;color=red&gt;暂时遗忘了一个主动技能&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· La caña de la época ha provocado que toda su grupo &lt;color=red&gt; olvide temporalmente una habilidad activa &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>美舍卢火炎</t>
   </si>
   <si>
     <t>·此处有火炎的魔石：&lt;color=blue&gt;团队攻击附加火炎效果&lt;/color&gt;。但激活此魔石，也将被烈火烧灼，&lt;color=red&gt;战斗开场处于长时间点燃状态&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; Imbue los ataques de tu partido con fuego &lt;/color&gt;, pero hace que el campo de batalla esté &lt;color=red&gt; cubierto de llamas al comienzo de la batalla &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>美舍卢花妖</t>
   </si>
   <si>
     <t>·此处有花妖的魔石：&lt;color=blue&gt;临时队伍：花妖加入&lt;/color&gt;。但受到花妖气息影响，&lt;color=red&gt;战斗中每隔十秒我方将产生短时间的混乱&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo convoca a &lt;color=blue&gt; aliado temporal: Dryad &lt;/color&gt;. La presencia de la Dryad hace que su grupo se confunda temporalmente en temporalmente cada 10 segundos &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>美舍卢荆棘</t>
   </si>
   <si>
     <t>·此处有荆棘的魔石：&lt;color=blue&gt;我方全体反馈受到伤害的50%&lt;/color&gt;。但要激活此魔石，受美舍卢花影响，团队每个人将&lt;color=red&gt;暂时遗忘了一个主动技能&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo hace &lt;color=blue&gt; Su partido refleja el 50% de los daños tomados &lt;/color&gt; pero los afecta con la caña de la época, haciéndolos &lt;color=red&gt; olvidar temporalmente una habilidad activa &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>美舍卢强化攻击</t>
   </si>
   <si>
     <t>·此处有强化攻击的魔石：&lt;color=blue&gt;团队攻击力+30%&lt;/color&gt;。但要激活此魔石，受美舍卢花影响，团队每个人将&lt;color=red&gt;暂时遗忘了一个主动技能&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el ataque de su partido en el 30%&lt;/color&gt;, pero afectará a su grupo con la caña de la época, haciéndolos &lt;color=red&gt; olvidar temporalmente una habilidad activa &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>美舍卢强化暴击</t>
   </si>
   <si>
     <t>·此处有强化暴击的魔石：&lt;color=blue&gt;团队暴击率+25%&lt;/color&gt;。但要激活此魔石，受美舍卢花影响，团队每个人将&lt;color=red&gt;暂时遗忘了一个主动技能&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la tasa de crítica de su partido en un 25%&lt;/color&gt;, pero afectará a su grupo con la caña de la época, haciéndolos &lt;color=red&gt; olvidar temporalmente una habilidad activa &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>美舍卢强化防御</t>
   </si>
   <si>
     <t>·此处有强化防御的魔石：&lt;color=blue&gt;团队的物理减伤+10%&lt;/color&gt;。但要激活此魔石，受美舍卢花影响，团队每个人将&lt;color=red&gt;暂时遗忘了一个主动技能&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la defensa de su partido por 10 &lt;/color&gt;, pero afectará a su grupo con la caña de la época, haciéndolas &lt;color=red&gt; olvidar temporalmente una habilidad activa &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>美舍卢强化格挡</t>
   </si>
   <si>
     <t>·此处有强化格挡的魔石：&lt;color=blue&gt;团队格挡率+20%&lt;/color&gt;。但要激活此魔石，受美舍卢花影响，团队每个人将&lt;color=red&gt;暂时遗忘了一个主动技能&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el bloque de su grupo en un 20%&lt;/color&gt;, pero afectará a su grupo con la caña de época, haciéndolos &lt;color=red&gt; olvidar temporalmente una habilidad activa &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>美舍卢强化闪避</t>
   </si>
   <si>
     <t>·此处有强化闪避的魔石：&lt;color=blue&gt;团队闪避率+20%&lt;/color&gt;。但要激活此魔石，受美舍卢花影响，团队每个人将&lt;color=red&gt;暂时遗忘了一个主动技能&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la evadir de su partido en un 20%&lt;/color&gt;, pero afectará a su grupo con la caña de la época, haciéndolas &lt;color=red&gt; olvidar temporalmente una habilidad activa &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>冰窟纯负面</t>
   </si>
   <si>
     <t>·此处寒冰凛冽，团队&lt;color=red&gt;生命-10%，气力-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· El frío amargo reduce la salud y el maná de su grupo &lt;color=red&gt; en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>冰窟嗜血魔石</t>
   </si>
   <si>
     <t>·此处有嗜血之魔石：&lt;color=red&gt;团队攻击附带吸血效果&lt;/color&gt;。但受此魔石影响，&lt;color=red&gt;战斗中每隔十秒我方将产生短时间的混乱&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo imbues &lt;color=red&gt; Los ataques de su partido con sanguijuela &lt;/color&gt; pero hace que &lt;color=red&gt; todas las unidades se confundan temporalmente cada 10 segundos &lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>冰窟悲鸣魔石</t>
   </si>
   <si>
     <t>·此处有悲鸣魔石：激活三枚悲鸣魔石，可以唤醒一名强力的临时队友【冰封魔影】。</t>
   </si>
   <si>
-    <t>· Active 3 piedras que lloran para convocar un aliado temporal: sombra congelada.</t>
-  </si>
-  <si>
     <t>冰窟强化攻击</t>
   </si>
   <si>
     <t>·此处有强化攻击的魔石：&lt;color=blue&gt;团队攻击力+30%&lt;/color&gt;。但激活此魔石将吸入冻气，团队&lt;color=red&gt;生命-10%，气力-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el ataque de su grupo en un 30%&lt;/color&gt; pero reducirá la salud y el maná de su grupo &lt;color=red&gt; en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>冰窟强化暴击</t>
   </si>
   <si>
     <t>·此处有强化暴击的魔石：&lt;color=blue&gt;团队暴击率+25%&lt;/color&gt;。但激活此魔石将吸入冻气，团队&lt;color=red&gt;生命-10%，气力-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la tasa de crítica de su partido en un 25%&lt;/color&gt; pero reducirá la salud y el maná de su grupo &lt;color=red&gt; en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>冰窟强化防御</t>
   </si>
   <si>
     <t>·此处有强化防御的魔石：&lt;color=blue&gt;团队的物理减伤+10%&lt;/color&gt;。但激活此魔石将吸入冻气，团队&lt;color=red&gt;生命-10%，气力-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la defensa de su partido por 10 &lt;/color&gt; pero reduce la salud y el maná de su grupo &lt;color=red&gt; en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>冰窟强化格挡</t>
   </si>
   <si>
     <t>·此处有强化格挡的魔石：&lt;color=blue&gt;团队格挡率+20%&lt;/color&gt;。但激活此魔石将吸入冻气，团队&lt;color=red&gt;生命-10%，气力-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará el bloque de su grupo en un 20%&lt;/color&gt; pero reducirá la salud y el maná de su grupo &lt;color=red&gt; en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>冰窟强化闪避</t>
   </si>
   <si>
     <t>·此处有强化闪避的魔石：&lt;color=blue&gt;团队闪避率+20%&lt;/color&gt;。但激活此魔石将吸入冻气，团队&lt;color=red&gt;生命-10%，气力-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; aumentará la evadir de su partido en un 20%&lt;/color&gt; pero reducirá la salud y el maná de su grupo &lt;color=red&gt; en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>熔岩纯负面</t>
   </si>
   <si>
     <t>·此处烈焰烧灼，团队&lt;color=red&gt;生命-10%，气力-10%&lt;/color&gt;。</t>
   </si>
   <si>
-    <t>· El calor abrasador reduce la salud y el maná de su grupo en un 10%&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>· Encuentra una piedra arcana. Activarlo &lt;color=blue&gt; Aumentará la evadir de toda su grupo en un 20%&lt;/color&gt;, pero activará una explosión de viento que te quita el camino. (&lt;color=red&gt; +1 pisos máximos &lt;/color&gt;)</t>
-  </si>
-  <si>
-    <t>· Aquí hay víboras venenosas. Party's &lt;color=red&gt; Salud -10%&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>· El diablo se ríe siniestramente en el espejo. Party &lt;color=red&gt; Salud -10 &lt;/Color&gt;.</t>
+    <t>Recuperar mana</t>
+  </si>
+  <si>
+    <t>Ative ataques selvagens</t>
+  </si>
+  <si>
+    <t>Ativar ataque furioso</t>
+  </si>
+  <si>
+    <t>Ativar barricada</t>
+  </si>
+  <si>
+    <t>Ativar impenetrável</t>
+  </si>
+  <si>
+    <t>Ativar panacéia</t>
+  </si>
+  <si>
+    <t>Ativar proteção contra o vento</t>
+  </si>
+  <si>
+    <t>Peça-lhes para se juntarem ao seu grupo</t>
+  </si>
+  <si>
+    <t>Baú aberto</t>
+  </si>
+  <si>
+    <t>Ative a pedra arcana</t>
+  </si>
+  <si>
+    <t>· Não há nada aqui.</t>
+  </si>
+  <si>
+    <t>· Você sente que a vitalidade sobe pelo ar. Concentre-se e seu &lt;color=blue&gt; durante toda a partida poderá recuperar 10% da saúde &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Você sente Arcana subindo pelo ar. Concentre-se e sua partida &lt;color=blue&gt; poderá recuperar 20% de mana &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana com uma inscrição: ataques selvagens. Ativá-lo &lt;color=blue&gt; aumentará o ataque de todo o grupo em 30%&lt;/color&gt; mas &lt;color=red&gt; aumentará o dano recebido em 20%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana com uma inscrição: ataque furioso. Ativá-lo &lt;color=blue&gt; aumentará a taxa crítica de todo o seu grupo em 25%&lt;/color&gt; mas &lt;color=red&gt; aumentará sua vulnerabilidade crítica em %&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana com a inscrição: barricada. Ativá-lo &lt;color=blue&gt; aumentará a defesa de todo o seu grupo em 20 &lt;/color&gt; mas &lt;color=red&gt; reduzirá sua velocidade de movimento em 150 &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana com uma inscrição impenetrável. Ativá-lo &lt;color=blue&gt; aumentará o bloqueio de todo o seu grupo em 20%&lt;/color&gt; mas &lt;color=red&gt; aumentará seus reis de habilidades em 50%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana com uma inscrição: panacéia. Ativá-lo &lt;color=blue&gt; restaurará 20 pontos de vida para todo o seu grupo a cada segundo &lt;/color&gt; mas &lt;color=red&gt; reduzirá seu ataque em 30%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana com a inscrição - Wind Ward. Ativá-lo &lt;color=blue&gt; aumentará a evasão de todo o seu grupo em 20%&lt;/color&gt;, mas &lt;color=red&gt; aumentará seu dano em 15%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Há um caçador aqui. Ele parece ansioso para se juntar ao seu grupo.</t>
+  </si>
+  <si>
+    <t>· Encontre um baú de tesouro.</t>
+  </si>
+  <si>
+    <t>· Um gás venenoso enche a área, fazendo com que seu grupo &lt;color=red&gt; perca 5 pontos de vida por segundo &lt;/color&gt; em batalha.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o ataque de todo o grupo em 30%&lt;/color&gt;, mas liberará um gás venenoso que fará com que seu grupo &lt;color=red&gt; perca 5 pontos de vida por segundo &lt;/color&gt; em batalha.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a taxa crítica do seu grupo em 25% &lt;/color&gt;, mas liberará um gás venenoso que fará com que seu grupo &lt;color=red&gt; perca 5 pontos de vida por segundo &lt;/color&gt; na batalha.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a defesa de todo o seu grupo em 10 &lt;/color&gt;, mas liberará um gás venenoso que fará com que seu grupo &lt;color=red&gt; perca 5 pontos de vida por segundo &lt;/color&gt; em batalha.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o bloqueio de todo o grupo em 20% &lt;/color&gt;, mas liberará um gás venenoso que fará com que seu grupo &lt;color=red&gt; perca 5 pontos de vida por segundo &lt;/color&gt; em batalha .</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a evasão de todo o seu grupo em 20%&lt;/color&gt;, mas liberará um gás venenoso que fará com que seu grupo &lt;color=red&gt; perca 5 pontos de vida por segundo &lt;/color&gt; na batalha.</t>
+  </si>
+  <si>
+    <t>· Uma rajada de vento tirou você do caminho. (&lt;color=red&gt; +1 andares máximos &lt;/color&gt;)</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o ataque de todo o grupo em 30%&lt;/color&gt;, mas libera uma rajada de vento que tira você do caminho. (&lt;color=red&gt; +1 andares máximos &lt;/color&gt;)</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a taxa crítica de todo o seu grupo em 25% &lt;/color&gt; mas liberará uma rajada de vento que o tirará do caminho. (&lt;color=red&gt; +1 andares máximos &lt;/color&gt;)</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a defesa de todo o seu grupo em 10 &lt;/color&gt;, mas ativará uma rajada de vento que soprará para fora do seu caminho. (&lt;color=red&gt; +1 andares máximos &lt;/color&gt;)</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o bloqueio de todo o seu grupo em 20% &lt;/color&gt;, mas ativará uma rajada de vento que o tirará do caminho. (&lt;color=red&gt; +1 andares máximos &lt;/color&gt;)</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; Aumentará a evasão de todo o seu grupo em 20% &lt;/color&gt;, mas ativará uma rajada de vento que o tirará do caminho. (&lt;color=red&gt; +1 andares máximos &lt;/color&gt;)</t>
+  </si>
+  <si>
+    <t>· Existem víboras venenosas aqui. &lt;color=red&gt; Saúde do grupo -10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Dá ao seu grupo &lt;color=blue&gt; ataques elétricos &lt;/color&gt;. Usar a magia do raio na água também faz com que você fique &lt;color=red&gt; periodicamente paralisado &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Ative 3 Sea Dragon Stones para desafiar o &lt;color=red&gt; Sea Dragon &lt;/color&gt; na batalha final.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o ataque de todo o grupo em 30%&lt;/color&gt;, mas ativará um ataque de Víbora, reduzindo a saúde &lt;color=red&gt; do seu grupo em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a taxa crítica do seu grupo em 25%&lt;/color&gt;, mas desencadeará um ataque de Víbora, reduzindo a saúde &lt;color=red&gt; do seu grupo em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a defesa de todo o seu grupo em 10 &lt;/color&gt;, mas ativará um ataque de Víbora, reduzindo a saúde do seu grupo &lt;color=red&gt; em 10% &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o bloqueio de todo o grupo em 20%&lt;/color&gt;, mas desencadeará um ataque de víbora, reduzindo a saúde &lt;color=red&gt; do seu grupo em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a evasão do seu grupo em 20%&lt;/color&gt;, mas ativará um ataque de víbora, reduzindo a saúde &lt;color=red&gt; do seu grupo em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· O diabo ri sinistramente no espelho. Festa &lt;color=red&gt; Saúde -10 &lt;/Color&gt;.</t>
+  </si>
+  <si>
+    <t>· O diabo no espelho observa cada movimento seu! &lt;color=red&gt; O diabo invocará outro tom na batalha final &lt;/color&gt;. O diabo pode invocar até 5 tons.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ative-o &lt;color=blue&gt; Imbui os ataques do seu grupo com Raios &lt;/color&gt; mas aumenta o poder do diabo, permitindo &lt;color=red&gt; que o diabo copie outro de seus personagens &lt;/color&gt; na batalha final.</t>
+  </si>
+  <si>
+    <t>· Ative todas as 3 pedras arcanas para um buff poderoso. Isso aumentará o poder do diabo, permitindo que &lt;color=red&gt; o diabo copie outro de seus &lt;/color&gt; personagens na batalha final.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o ataque do seu grupo em 30% &lt;/color&gt; mas &lt;color=red&gt; desperdiçará 30% da mana do seu grupo &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a taxa crítica do seu grupo em 25% &lt;/color&gt; mas &lt;color=red&gt; desperdiçará 30% da mana do seu grupo &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a defesa do seu grupo em 10 &lt;/color&gt; mas &lt;color=red&gt; desperdiçará 30% da mana do seu grupo &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o bloqueio do seu grupo em 20% &lt;/color&gt; mas &lt;color=red&gt; gastará 30% da mana do seu grupo &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a evasão do seu grupo em 20% &lt;/color&gt; mas &lt;color=red&gt; desperdiçará 30% da mana do seu grupo &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· A Bengala da Era fez com que todo o seu grupo &lt;color=red&gt; esquecesse temporariamente uma habilidade ativa &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; Imbui os ataques do seu grupo com fogo &lt;/color&gt;, mas faz com que o campo de batalha fique &lt;color=red&gt; coberto de chamas no início da batalha &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo invoca &lt;color=blue&gt; aliado temporário: Dryad &lt;/color&gt;. A presença da Dríade faz com que seu grupo fique temporariamente confuso a cada 10 segundos &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo faz com que &lt;color=blue&gt; seu grupo reflita 50% do dano recebido &lt;/color&gt; mas os afeta com a bengala do tempo, fazendo com que eles &lt;color=red&gt; esqueçam temporariamente uma habilidade ativa &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-la &lt;color=blue&gt; aumentará o ataque do seu grupo em 30% &lt;/color&gt;, mas afetará seu grupo com a bengala do tempo, fazendo-os &lt;color=red&gt; esquecerem temporariamente uma habilidade ativa &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-la &lt;color=blue&gt; aumentará a taxa crítica do seu grupo em 25% &lt;/color&gt;, mas afetará seu grupo com a bengala da época, fazendo com que eles &lt;color=red&gt; esqueçam temporariamente uma habilidade ativa &lt;/color&gt; .</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a defesa do seu grupo em 10 &lt;/color&gt;, mas afetará seu grupo com a bengala da época, fazendo-os &lt;color=red&gt; esquecerem temporariamente uma habilidade ativa &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o bloqueio do seu grupo em 20% &lt;/color&gt;, mas afetará seu grupo com a bengala de época, fazendo com que eles &lt;color=red&gt; esqueçam temporariamente uma habilidade ativa &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-la &lt;color=blue&gt; aumentará a evasão do seu grupo em 20% &lt;/color&gt;, mas afetará seu grupo com a bengala do tempo, fazendo com que eles &lt;color=red&gt; esqueçam temporariamente uma habilidade ativa &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Bitter Cold reduz a &lt;color=red&gt; saúde e mana do seu grupo em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo drena &lt;color=red&gt; os ataques do seu grupo &lt;/color&gt;, mas faz com que &lt;color=red&gt; todas as unidades fiquem temporariamente confusas a cada 10 segundos &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Ative 3 Weeping Stones para invocar um aliado temporário: Frozen Shadow.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o ataque do seu grupo em 30%&lt;/color&gt;, mas reduzirá a &lt;color=red&gt; saúde e mana do seu grupo em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a taxa crítica do seu grupo em 25%&lt;/color&gt;, mas reduzirá a saúde e o mana do seu grupo &lt;color=red&gt; em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a defesa do seu grupo em 10 &lt;/color&gt; mas reduzirá a &lt;color=red&gt; saúde e mana do seu grupo em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará o bloqueio do seu grupo em 20%&lt;/color&gt;, mas reduzirá a &lt;color=red&gt; saúde e mana do seu grupo em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· Encontre uma pedra arcana. Ativá-lo &lt;color=blue&gt; aumentará a evasão do seu grupo em 20%&lt;/color&gt;, mas reduzirá a saúde e a mana do seu grupo &lt;color=red&gt; em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>· O calor escaldante reduz a saúde e a mana do seu grupo em 10%&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Recuperar vida</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,13 +963,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1003,284 +1007,284 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>6</v>
@@ -1289,100 +1293,100 @@
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>6</v>
@@ -1391,100 +1395,100 @@
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>6</v>
@@ -1493,134 +1497,134 @@
         <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>6</v>
@@ -1629,15 +1633,15 @@
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>6</v>
@@ -1646,134 +1650,134 @@
         <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>6</v>
@@ -1782,151 +1786,151 @@
         <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>6</v>
@@ -1935,134 +1939,134 @@
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>6</v>
@@ -2071,10 +2075,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/tradept/Excel/Localization/Main/english/W文字探索特殊事件表_TextExploreEvents_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/W文字探索特殊事件表_TextExploreEvents_hotfix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BDA54C-0F80-4DBA-963A-D00BBC6FA389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781D1669-45AE-404B-A2AA-AF87B4F06665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="209">
   <si>
     <t>事件ID_ID</t>
   </si>
@@ -646,6 +646,12 @@
   </si>
   <si>
     <t>Recuperar vida</t>
+  </si>
+  <si>
+    <t>Activate the arcane stone</t>
+  </si>
+  <si>
+    <t>· Você encontra uma pedra arcano. Ativá-la irá &lt;color=blue&gt;aumentar a Taxa de Crítica de todo o seu grupo em 25%&lt;/color&gt;, mas liberará um gás venenoso que faz com que seu grupo &lt;color=red&gt;perca 5 de Vida por segundo&lt;/color&gt; em batalha.</t>
   </si>
 </sst>
 </file>
@@ -963,15 +969,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="E51" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="186.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="24" width="8.7109375" customWidth="1"/>
   </cols>
@@ -2081,7 +2088,23 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
